--- a/Absorber Section Heat Duty and Tray Counts.xlsx
+++ b/Absorber Section Heat Duty and Tray Counts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13478" windowHeight="12608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -378,6 +378,60 @@
   </si>
   <si>
     <t>T-603</t>
+  </si>
+  <si>
+    <t>C-601A</t>
+  </si>
+  <si>
+    <t>Indicated horsepower</t>
+  </si>
+  <si>
+    <t>Calculated brake horsepower</t>
+  </si>
+  <si>
+    <t>Net work required</t>
+  </si>
+  <si>
+    <t>Power loss</t>
+  </si>
+  <si>
+    <t>Calculated discharge pressure</t>
+  </si>
+  <si>
+    <t>Calculated pressure change</t>
+  </si>
+  <si>
+    <t>Outlet temperature</t>
+  </si>
+  <si>
+    <t>Isentropic outlet temperature</t>
+  </si>
+  <si>
+    <t>Head developed</t>
+  </si>
+  <si>
+    <t>Isentropic power requirement</t>
+  </si>
+  <si>
+    <t>Inlet volumetric flow rate</t>
+  </si>
+  <si>
+    <t>Outlet volumetric flow rate</t>
+  </si>
+  <si>
+    <t>Total feed stream CO2e flow</t>
+  </si>
+  <si>
+    <t>Total product stream CO2e flow</t>
+  </si>
+  <si>
+    <t>Net stream CO2e production</t>
+  </si>
+  <si>
+    <t>Utility CO2e production</t>
+  </si>
+  <si>
+    <t>Total CO2e production</t>
   </si>
 </sst>
 </file>
@@ -698,7 +752,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -728,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1253,6 +1307,9 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1471,10 +1528,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>124.63772</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1506,10 +1560,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>124.63772</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1541,10 +1592,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>124.63772</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1585,10 +1633,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1631,9 +1676,6 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0.72</v>
-      </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -1685,10 +1727,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>19.899999999999999</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1735,10 +1774,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>14.39</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1793,9 +1829,6 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>3.6116152499999998</v>
-      </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
@@ -1847,10 +1880,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>314.99497100000002</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1903,10 +1933,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>294.58923499999997</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -1952,9 +1979,6 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
       <c r="D27" t="s">
         <v>30</v>
       </c>
@@ -2073,10 +2097,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>13365.215200000001</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -2117,10 +2138,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>89.739158500000002</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -2151,9 +2169,6 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
-        <v>1.10315729</v>
-      </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
@@ -2181,10 +2196,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>7235.71137</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -2213,10 +2225,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>2300.0098499999999</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -2247,9 +2256,6 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
-        <v>0.98678581899999995</v>
-      </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
@@ -2279,9 +2285,6 @@
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
-        <v>0.97651549500000001</v>
-      </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
@@ -2437,10 +2440,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
@@ -2460,10 +2460,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -2492,10 +2489,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -2515,10 +2509,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2547,10 +2538,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
